--- a/templates/excel/contacts_template.xlsx
+++ b/templates/excel/contacts_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="8171"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="8559"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -56,7 +56,7 @@
     <t>02:その他お問い合わせ</t>
   </si>
   <si>
-    <t>a9b7d31e3124d1adecfe214becca4b0055420bc1746a940247751427d44aa90b24002dbec319ee33ef3835bf0a5d69d878785a5d276c689182b4c832a9703083</t>
+    <t>da3f2f085b89ff15a8351120da19a463b103f523107eed2ebdbe27107fd7ffe72042b143b616ce40487bcd3e353b18cec8491f68b71eabc09800309e55225c7b</t>
   </si>
 </sst>
 </file>

--- a/templates/excel/contacts_template.xlsx
+++ b/templates/excel/contacts_template.xlsx
@@ -442,8 +442,8 @@
     <col min="5" max="5" width="10" customWidth="true" style="0"/>
     <col min="6" max="6" width="26" customWidth="true" style="0"/>
     <col min="7" max="7" width="18" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10" customWidth="true" style="0"/>
+    <col min="8" max="8" width="19.38" customWidth="true" style="0"/>
+    <col min="9" max="9" width="19.38" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
